--- a/Assets/Resources/ItemData/Randomize/WeaponRadomizeByLevel.xlsx
+++ b/Assets/Resources/ItemData/Randomize/WeaponRadomizeByLevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSG\Desktop\Capstone-Design-Project\Assets\Resources\ItemData\Randomize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A620DF-D818-4CAE-BD57-86965176E112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F085714-F77E-407C-AEFD-CD19A08E5719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2892" yWindow="720" windowWidth="19332" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ATK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ATKSPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOCKET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,92 +361,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>9</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>15</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>17</v>
       </c>
       <c r="B10">
         <v>9</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/ItemData/Randomize/WeaponRadomizeByLevel.xlsx
+++ b/Assets/Resources/ItemData/Randomize/WeaponRadomizeByLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSG\Desktop\Capstone-Design-Project\Assets\Resources\ItemData\Randomize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F085714-F77E-407C-AEFD-CD19A08E5719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E7DC34-3B41-4F57-8944-7F1508272D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="720" windowWidth="19332" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="780" windowWidth="15624" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -393,10 +393,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -404,10 +404,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -415,10 +415,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>6</v>

--- a/Assets/Resources/ItemData/Randomize/WeaponRadomizeByLevel.xlsx
+++ b/Assets/Resources/ItemData/Randomize/WeaponRadomizeByLevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSG\Desktop\Capstone-Design-Project\Assets\Resources\ItemData\Randomize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E7DC34-3B41-4F57-8944-7F1508272D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619129E9-C6D6-4A21-B09F-1D7D8717DE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="780" windowWidth="15624" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ATK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,14 @@
   </si>
   <si>
     <t>SOCKET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRIT_RATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRIT_DAMAGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,8 +387,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>5</v>
       </c>
@@ -390,8 +404,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>10</v>
       </c>
@@ -401,8 +421,14 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>15</v>
       </c>
@@ -412,8 +438,14 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>20</v>
       </c>
@@ -423,8 +455,14 @@
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>25</v>
       </c>
@@ -434,8 +472,14 @@
       <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>30</v>
       </c>
@@ -445,8 +489,14 @@
       <c r="C7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>35</v>
       </c>
@@ -456,8 +506,14 @@
       <c r="C8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>40</v>
       </c>
@@ -467,8 +523,14 @@
       <c r="C9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>50</v>
       </c>
@@ -477,6 +539,12 @@
       </c>
       <c r="C10">
         <v>6</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
